--- a/Foglio di lavoro.xlsx
+++ b/Foglio di lavoro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\Github\AI-Car-Kineton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EDFCAB-0301-4EBE-BAAB-F5BE96B6BDD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0A4800-E8A4-4DDD-B9F0-EB0167B2B6AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>Matricola</t>
   </si>
@@ -191,6 +191,15 @@
   </si>
   <si>
     <t>Concluse le scene; finalizzati i movimenti dell'auto e creato un primo prototipo di agente per l'auto.</t>
+  </si>
+  <si>
+    <t>Auto migliorata</t>
+  </si>
+  <si>
+    <t>Autocam e frenata in curva</t>
+  </si>
+  <si>
+    <t>Aggiunto un sistema che permette di frenare in curva in modo automatico e un sistema di gestiore di camera interno all'auto automatico</t>
   </si>
 </sst>
 </file>
@@ -2688,7 +2697,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -7177,8 +7186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8871,7 +8880,7 @@
       </c>
       <c r="B17" s="36">
         <f>TabellaEstesaFerrara!E19</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C17" s="36">
         <f>TabellaEstesaAbate!E19</f>
@@ -11195,7 +11204,7 @@
       </c>
       <c r="B100" s="37">
         <f>SUM(B2:B99)</f>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C100" s="37">
         <f>SUM(C2:C99)</f>
@@ -31962,7 +31971,7 @@
       </c>
       <c r="B4" s="33">
         <f>SUM(riassuntoOreProgetto!B2:B99)</f>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -59716,8 +59725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -59944,10 +59953,18 @@
         <f>riassuntoOreProgetto!A17</f>
         <v>43993</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="49"/>
+      <c r="B19" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="49">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30">

--- a/Foglio di lavoro.xlsx
+++ b/Foglio di lavoro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\Github\AI-Car-Kineton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4EA0F6-F07A-4D0A-8FA6-3F9E70293FAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F96C80-5B21-4737-9EBA-FFAC38E7244D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
   <si>
     <t>Matricola</t>
   </si>
@@ -248,6 +248,12 @@
   </si>
   <si>
     <t xml:space="preserve">ESAME </t>
+  </si>
+  <si>
+    <t>Grandi test</t>
+  </si>
+  <si>
+    <t>Effettuati test basilari ma con ottimi risultati</t>
   </si>
 </sst>
 </file>
@@ -5895,7 +5901,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -9100,7 +9106,7 @@
       </c>
       <c r="C23" s="36">
         <f>TabellaEstesaAbate!E25</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -11256,7 +11262,7 @@
       </c>
       <c r="C100" s="37">
         <f>SUM(C2:C99)</f>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
@@ -31909,7 +31915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AA994"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
@@ -32053,7 +32059,7 @@
       </c>
       <c r="B5" s="33">
         <f>SUM(riassuntoOreProgetto!C2:C99)</f>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -63579,8 +63585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FEF407-122A-4E40-B832-EDBB91C0AE10}">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -63900,10 +63906,16 @@
         <f>riassuntoOreProgetto!A23</f>
         <v>43999</v>
       </c>
-      <c r="B25" s="52"/>
-      <c r="C25" s="47"/>
+      <c r="B25" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>72</v>
+      </c>
       <c r="D25" s="47"/>
-      <c r="E25" s="45"/>
+      <c r="E25" s="45">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="30">

--- a/Foglio di lavoro.xlsx
+++ b/Foglio di lavoro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carmi\Desktop\Tirocinio\AI-Car-Kineton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EEB7D1-38CE-4296-ACFF-1C54C0C3DAC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F97B1F-A830-437B-97B1-B6B764E1D747}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="79">
   <si>
     <t>Matricola</t>
   </si>
@@ -265,6 +265,15 @@
   </si>
   <si>
     <t>Aggiornamento euristiche e reward script agente per la scena di attraversamento, cambiamenti specifici ai movimenti dell'auto e al sistema di frenata dopo l'aggiornamento  e sessioni di training 3 4 and 5 dopo i cambiamenti allo script.</t>
+  </si>
+  <si>
+    <t>Cambiamenti Generali</t>
+  </si>
+  <si>
+    <t>Miglioramenti sistema di percezione dei pedoni e movimenti agente e Traininig</t>
+  </si>
+  <si>
+    <t>ggiornamento dettagliato nell'assegnazione dei reward per i movimenti dell'agente e di collisioni con i pedoni, aggiunta del secondo pedone sulle strisce e continuazione della sessione 5 di training dopo i cambiamenti</t>
   </si>
 </sst>
 </file>
@@ -600,7 +609,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -701,6 +710,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2786,7 +2798,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -9169,7 +9181,7 @@
       </c>
       <c r="B25" s="36">
         <f>TabellaEstesaFerrara!E27</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C25" s="36">
         <f>TabellaEstesaAbate!E27</f>
@@ -11269,7 +11281,7 @@
       </c>
       <c r="B100" s="37">
         <f>SUM(B2:B99)</f>
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C100" s="37">
         <f>SUM(C2:C99)</f>
@@ -31926,7 +31938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AA994"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
@@ -32036,7 +32048,7 @@
       </c>
       <c r="B4" s="33">
         <f>SUM(riassuntoOreProgetto!B2:B99)</f>
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -59790,15 +59802,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.8984375" customWidth="1"/>
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="175.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.19921875" customWidth="1"/>
     <col min="6" max="23" width="5.69921875" customWidth="1"/>
@@ -60148,10 +60160,18 @@
         <f>riassuntoOreProgetto!A25</f>
         <v>44001</v>
       </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="45"/>
+      <c r="B27" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="45">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30">
@@ -60161,7 +60181,7 @@
       <c r="B28" s="47"/>
       <c r="C28" s="47"/>
       <c r="D28" s="46"/>
-      <c r="E28" s="45"/>
+      <c r="E28" s="60"/>
     </row>
     <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30">
@@ -63604,7 +63624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FEF407-122A-4E40-B832-EDBB91C0AE10}">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>

--- a/Foglio di lavoro.xlsx
+++ b/Foglio di lavoro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\Github\AI-Car-Kineton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10AB761-0474-4AF1-A1AB-9472D71C6CC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F992458F-91D4-4E72-9CFE-EEC4C95184C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="87">
   <si>
     <t>Matricola</t>
   </si>
@@ -287,6 +287,15 @@
   </si>
   <si>
     <t>Riorganizzata la scena in modo da semplificare i test, i quali non hanno portato a concreti risultati.</t>
+  </si>
+  <si>
+    <t>Effettuati test + aggiunta di un primo sistema di direzione</t>
+  </si>
+  <si>
+    <t>Test + sistema di direzione</t>
+  </si>
+  <si>
+    <t>Effettuati nuovi test, aggiunto sistema di direzione che permette all'auto di assegnare rewards in base alla direzione in cui guida, brainstorming riguardo un sistema di rotazione delle ruote con assegnamento</t>
   </si>
 </sst>
 </file>
@@ -622,7 +631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -720,9 +729,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5952,7 +5958,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
@@ -8507,8 +8513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9282,7 +9288,7 @@
       </c>
       <c r="C28" s="36">
         <f>TabellaEstesaAbate!E30</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -11298,7 +11304,7 @@
       </c>
       <c r="C100" s="37">
         <f>SUM(C2:C99)</f>
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
@@ -31951,7 +31957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AA994"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
@@ -31965,23 +31971,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
@@ -32095,7 +32101,7 @@
       </c>
       <c r="B5" s="33">
         <f>SUM(riassuntoOreProgetto!C2:C99)</f>
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -59815,7 +59821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="D12" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -60193,8 +60199,8 @@
       </c>
       <c r="B28" s="47"/>
       <c r="C28" s="47"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="59"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="45"/>
     </row>
     <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="30">
@@ -63637,8 +63643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FEF407-122A-4E40-B832-EDBB91C0AE10}">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -64024,7 +64030,9 @@
         <f>riassuntoOreProgetto!A27</f>
         <v>44003</v>
       </c>
-      <c r="B29" s="52"/>
+      <c r="B29" s="52" t="s">
+        <v>65</v>
+      </c>
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
       <c r="E29" s="45"/>
@@ -64034,10 +64042,18 @@
         <f>riassuntoOreProgetto!A28</f>
         <v>44004</v>
       </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="45"/>
+      <c r="B30" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="45">
+        <v>8</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="30">

--- a/Foglio di lavoro.xlsx
+++ b/Foglio di lavoro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\Github\AI-Car-Kineton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822EA5A6-64A5-439D-B6DD-13E50773FD56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F393EF58-71E2-422C-A056-9BB51CD9A152}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="104">
   <si>
     <t>Matricola</t>
   </si>
@@ -338,6 +338,15 @@
   </si>
   <si>
     <t>Sostenuti nuovi test (continuazioni di quelli di ieri) ma con scarsi risultati sulla retromarcia. Di conseguenza, i test verranno rieffettuati da 0 con disposizioni diverse.</t>
+  </si>
+  <si>
+    <t>Nuovi test (sperimentali) + prima documentazione</t>
+  </si>
+  <si>
+    <t>Test + docs</t>
+  </si>
+  <si>
+    <t>Sostenuti nuovi test (Parking-NS2-X) con buoni risultati. Aggiunta documentazione provvisoria sul comportamento delle sessioni.</t>
   </si>
 </sst>
 </file>
@@ -6012,7 +6021,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
@@ -9442,7 +9451,7 @@
       </c>
       <c r="C32" s="36">
         <f>TabellaEstesaAbate!E34</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -11346,7 +11355,7 @@
       </c>
       <c r="C100" s="37">
         <f>SUM(C2:C99)</f>
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
@@ -32143,7 +32152,7 @@
       </c>
       <c r="B5" s="33">
         <f>SUM(riassuntoOreProgetto!C2:C99)</f>
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -63728,7 +63737,7 @@
   <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -64198,10 +64207,18 @@
         <f>riassuntoOreProgetto!A32</f>
         <v>44008</v>
       </c>
-      <c r="B34" s="52"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="45"/>
+      <c r="B34" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="45">
+        <v>8</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="30">

--- a/Foglio di lavoro.xlsx
+++ b/Foglio di lavoro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carmi\Desktop\Tirocinio\AI-Car-Kineton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7DCED9-5604-4C57-9A37-80305BE0218D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F843699-0A3A-4DB3-9AFA-9FBF70F96664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="116">
   <si>
     <t>Matricola</t>
   </si>
@@ -376,6 +376,15 @@
   </si>
   <si>
     <t>PREPARAZIONE ESAME</t>
+  </si>
+  <si>
+    <t>Ampliamento Agenti + Training + Documentazione</t>
+  </si>
+  <si>
+    <t>Aggiunta del secondo agente + session training da 7_1 (forced and repeat) a 7_9</t>
+  </si>
+  <si>
+    <t>Aggiunta della seconda macchina in senso opposto nella scena, accorgimenti vari in particolar modo ai raggi del Ray Perception Sensor per una tenuta di strada e rilevamento pedoni ottimale - test relativi con modifiche alterne e pedoni/step differenti con notevoli miglioramenti nel comportamento complessivo + relativo ampliamento documentazione sessione di training 7.</t>
   </si>
 </sst>
 </file>
@@ -2933,7 +2942,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0</c:v>
@@ -8593,7 +8602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -9616,7 +9625,7 @@
       </c>
       <c r="B37" s="36">
         <f>TabellaEstesaFerrara!E39</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C37" s="36">
         <f>TabellaEstesaAbate!E39</f>
@@ -11380,7 +11389,7 @@
       </c>
       <c r="B100" s="37">
         <f>SUM(B2:B99)</f>
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C100" s="37">
         <f>SUM(C2:C99)</f>
@@ -32037,8 +32046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AA994"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA6" sqref="AA6"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32147,7 +32156,7 @@
       </c>
       <c r="B4" s="33">
         <f>SUM(riassuntoOreProgetto!B2:B99)</f>
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -59899,23 +59908,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:I1000"/>
+  <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:B38"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.8984375" customWidth="1"/>
-    <col min="2" max="2" width="26.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="66.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="195" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="213" customWidth="1"/>
     <col min="5" max="5" width="16.19921875" customWidth="1"/>
     <col min="6" max="23" width="5.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="38" t="s">
         <v>19</v>
       </c>
@@ -60356,7 +60365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="30">
         <f>riassuntoOreProgetto!A31</f>
         <v>44007</v>
@@ -60374,7 +60383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="30">
         <f>riassuntoOreProgetto!A32</f>
         <v>44008</v>
@@ -60392,7 +60401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="30">
         <f>riassuntoOreProgetto!A33</f>
         <v>44009</v>
@@ -60404,7 +60413,7 @@
       <c r="D35" s="47"/>
       <c r="E35" s="45"/>
     </row>
-    <row r="36" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="30">
         <f>riassuntoOreProgetto!A34</f>
         <v>44010</v>
@@ -60416,7 +60425,7 @@
       <c r="D36" s="47"/>
       <c r="E36" s="45"/>
     </row>
-    <row r="37" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="30">
         <f>riassuntoOreProgetto!A35</f>
         <v>44011</v>
@@ -60428,7 +60437,7 @@
       <c r="D37" s="47"/>
       <c r="E37" s="45"/>
     </row>
-    <row r="38" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="30">
         <f>riassuntoOreProgetto!A36</f>
         <v>44012</v>
@@ -60440,17 +60449,26 @@
       <c r="D38" s="46"/>
       <c r="E38" s="45"/>
     </row>
-    <row r="39" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="30">
         <f>riassuntoOreProgetto!A37</f>
         <v>44013</v>
       </c>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="45"/>
-    </row>
-    <row r="40" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="45">
+        <v>8</v>
+      </c>
+      <c r="J39" s="42"/>
+    </row>
+    <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="30">
         <f>riassuntoOreProgetto!A38</f>
         <v>44014</v>
@@ -60460,7 +60478,7 @@
       <c r="D40" s="47"/>
       <c r="E40" s="49"/>
     </row>
-    <row r="41" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="30">
         <f>riassuntoOreProgetto!A39</f>
         <v>44015</v>
@@ -60470,7 +60488,7 @@
       <c r="D41" s="47"/>
       <c r="E41" s="49"/>
     </row>
-    <row r="42" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="30">
         <f>riassuntoOreProgetto!A40</f>
         <v>44016</v>
@@ -60480,7 +60498,7 @@
       <c r="D42" s="47"/>
       <c r="E42" s="49"/>
     </row>
-    <row r="43" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="30">
         <f>riassuntoOreProgetto!A41</f>
         <v>44017</v>
@@ -60490,7 +60508,7 @@
       <c r="D43" s="47"/>
       <c r="E43" s="49"/>
     </row>
-    <row r="44" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="30">
         <f>riassuntoOreProgetto!A42</f>
         <v>44018</v>
@@ -60500,7 +60518,7 @@
       <c r="D44" s="47"/>
       <c r="E44" s="49"/>
     </row>
-    <row r="45" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="30">
         <f>riassuntoOreProgetto!A43</f>
         <v>44019</v>
@@ -60510,7 +60528,7 @@
       <c r="D45" s="46"/>
       <c r="E45" s="45"/>
     </row>
-    <row r="46" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="30">
         <f>riassuntoOreProgetto!A44</f>
         <v>44020</v>
@@ -60520,7 +60538,7 @@
       <c r="D46" s="46"/>
       <c r="E46" s="45"/>
     </row>
-    <row r="47" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="30">
         <f>riassuntoOreProgetto!A45</f>
         <v>44021</v>
@@ -60530,7 +60548,7 @@
       <c r="D47" s="47"/>
       <c r="E47" s="49"/>
     </row>
-    <row r="48" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="30">
         <f>riassuntoOreProgetto!A46</f>
         <v>44022</v>
@@ -63781,7 +63799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FEF407-122A-4E40-B832-EDBB91C0AE10}">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>

--- a/Foglio di lavoro.xlsx
+++ b/Foglio di lavoro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carmi\Desktop\Tirocinio\AI-Car-Kineton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F843699-0A3A-4DB3-9AFA-9FBF70F96664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A5A956-6082-4F73-9A33-0F956B954644}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="119">
   <si>
     <t>Matricola</t>
   </si>
@@ -385,6 +385,15 @@
   </si>
   <si>
     <t>Aggiunta della seconda macchina in senso opposto nella scena, accorgimenti vari in particolar modo ai raggi del Ray Perception Sensor per una tenuta di strada e rilevamento pedoni ottimale - test relativi con modifiche alterne e pedoni/step differenti con notevoli miglioramenti nel comportamento complessivo + relativo ampliamento documentazione sessione di training 7.</t>
+  </si>
+  <si>
+    <t>Bug Analisys + training + documentazione</t>
+  </si>
+  <si>
+    <t>Modifiche sistemi di raggi auto e Reward + training dopo modifiche</t>
+  </si>
+  <si>
+    <t>Modifiche come da documentazione Training Sessione 7 dei sistemi di raggi dell'agente - Bug Analisys per rotazioni incorrette tra i walk limit durante la ripartenza + training da 7_10 a 7_14  (da finire) + documentazione</t>
   </si>
 </sst>
 </file>
@@ -2945,7 +2954,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0</c:v>
@@ -8602,7 +8611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -9653,7 +9662,7 @@
       </c>
       <c r="B38" s="36">
         <f>TabellaEstesaFerrara!E40</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C38" s="36">
         <f>TabellaEstesaAbate!E40</f>
@@ -11389,7 +11398,7 @@
       </c>
       <c r="B100" s="37">
         <f>SUM(B2:B99)</f>
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C100" s="37">
         <f>SUM(C2:C99)</f>
@@ -32046,7 +32055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AA994"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -32156,7 +32165,7 @@
       </c>
       <c r="B4" s="33">
         <f>SUM(riassuntoOreProgetto!B2:B99)</f>
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -59910,8 +59919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView topLeftCell="B27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -60473,10 +60482,18 @@
         <f>riassuntoOreProgetto!A38</f>
         <v>44014</v>
       </c>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="49"/>
+      <c r="B40" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="49">
+        <v>8</v>
+      </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="30">

--- a/Foglio di lavoro.xlsx
+++ b/Foglio di lavoro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\Github\AI-Car-Kineton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A537A2B2-0929-4B42-B891-0ECC1B36798C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C481D41F-6CEC-4392-BCF7-EA73D9D5208C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="122">
   <si>
     <t>Matricola</t>
   </si>
@@ -6021,7 +6021,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>8</c:v>
@@ -6051,7 +6051,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -8618,8 +8618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="C14" s="36">
         <f>TabellaEstesaAbate!E16</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -9281,7 +9281,7 @@
       </c>
       <c r="C24" s="36">
         <f>TabellaEstesaAbate!E26</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -11409,7 +11409,7 @@
       </c>
       <c r="C100" s="37">
         <f>SUM(C2:C99)</f>
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
@@ -32062,7 +32062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AA994"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
@@ -32206,7 +32206,7 @@
       </c>
       <c r="B5" s="33">
         <f>SUM(riassuntoOreProgetto!C2:C99)</f>
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -59926,8 +59926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -63823,8 +63823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FEF407-122A-4E40-B832-EDBB91C0AE10}">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -64005,7 +64005,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="49">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -64168,7 +64168,7 @@
       </c>
       <c r="D26" s="46"/>
       <c r="E26" s="45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">

--- a/Foglio di lavoro.xlsx
+++ b/Foglio di lavoro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\Github\AI-Car-Kineton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C481D41F-6CEC-4392-BCF7-EA73D9D5208C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDBA4D5-3BC0-46D1-8623-40C141751CB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="123">
   <si>
     <t>Matricola</t>
   </si>
@@ -401,6 +401,9 @@
   </si>
   <si>
     <t>Sostenuti nuovi test (Parking-NS3-{5-6-7-8}) con ottimi risultati. Aggiunta documentazione sui nuovi test della sessione NS3. Ridefiniti gli spawn.</t>
+  </si>
+  <si>
+    <t>Conclusi I test della sessione Parking-NS3. L'ultimo test ha comportato la ridefinizione completa degli spawn, in modo da testare principalmente la retromarcia.</t>
   </si>
 </sst>
 </file>
@@ -6096,7 +6099,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0</c:v>
@@ -9701,7 +9704,7 @@
       </c>
       <c r="C39" s="36">
         <f>TabellaEstesaAbate!E41</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -11409,7 +11412,7 @@
       </c>
       <c r="C100" s="37">
         <f>SUM(C2:C99)</f>
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
@@ -32206,7 +32209,7 @@
       </c>
       <c r="B5" s="33">
         <f>SUM(riassuntoOreProgetto!C2:C99)</f>
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -63823,8 +63826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FEF407-122A-4E40-B832-EDBB91C0AE10}">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -64414,10 +64417,18 @@
         <f>riassuntoOreProgetto!A39</f>
         <v>44015</v>
       </c>
-      <c r="B41" s="52"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="49"/>
+      <c r="B41" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" s="49">
+        <v>8</v>
+      </c>
     </row>
     <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="30">

--- a/Foglio di lavoro.xlsx
+++ b/Foglio di lavoro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carmi\Desktop\Tirocinio\AI-Car-Kineton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63599F1-6677-4A00-B6CC-B9D8873C7F98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E47DE5-FD0B-43F3-9E1B-8CDB33561CF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="128">
   <si>
     <t>Matricola</t>
   </si>
@@ -413,6 +413,15 @@
   <si>
     <t>Test finali sessione 7 - Documentazione + nuovo prototipo agente jeep da assestare</t>
   </si>
+  <si>
+    <t>training session finali sessione 7 e creazione e primi test 3 scena crosswalk</t>
+  </si>
+  <si>
+    <t>Risolti i bug nel respawn dei pedoni con funzionamento più ottimale con più copie dell'environment - Creazione scena di croswalk 3 con due attraversamenti - training finale 7_18 per sessione 7, inizio training sessione 8 su terza scena + documentazione per le due sessioni.</t>
+  </si>
+  <si>
+    <t>Training - New Features - documentation e bug analysis</t>
+  </si>
 </sst>
 </file>
 
@@ -747,7 +756,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -848,6 +857,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2978,7 +2990,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0</c:v>
@@ -8629,7 +8641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
@@ -9736,7 +9748,7 @@
       </c>
       <c r="B40" s="36">
         <f>TabellaEstesaFerrara!E42</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C40" s="36">
         <f>TabellaEstesaAbate!E42</f>
@@ -11416,7 +11428,7 @@
       </c>
       <c r="B100" s="37">
         <f>SUM(B2:B99)</f>
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C100" s="37">
         <f>SUM(C2:C99)</f>
@@ -32073,7 +32085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AA994"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
@@ -32183,7 +32195,7 @@
       </c>
       <c r="B4" s="33">
         <f>SUM(riassuntoOreProgetto!B2:B99)</f>
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -59937,14 +59949,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="E27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41:I42"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.8984375" customWidth="1"/>
-    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="66.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="213" customWidth="1"/>
     <col min="5" max="5" width="16.19921875" customWidth="1"/>
@@ -60129,7 +60141,7 @@
         <f>riassuntoOreProgetto!A15</f>
         <v>43991</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="57" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="46" t="s">
@@ -60147,7 +60159,7 @@
         <f>riassuntoOreProgetto!A16</f>
         <v>43992</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="52" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="47" t="s">
@@ -60183,7 +60195,7 @@
         <f>riassuntoOreProgetto!A18</f>
         <v>43994</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="52" t="s">
         <v>55</v>
       </c>
       <c r="C20" s="47" t="s">
@@ -60225,7 +60237,7 @@
         <f>riassuntoOreProgetto!A21</f>
         <v>43997</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="60" t="s">
         <v>61</v>
       </c>
       <c r="C23" s="47" t="s">
@@ -60277,7 +60289,7 @@
         <f>riassuntoOreProgetto!A24</f>
         <v>44000</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="52" t="s">
         <v>71</v>
       </c>
       <c r="C26" s="47" t="s">
@@ -60295,7 +60307,7 @@
         <f>riassuntoOreProgetto!A25</f>
         <v>44001</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="57" t="s">
         <v>74</v>
       </c>
       <c r="C27" s="46" t="s">
@@ -60343,7 +60355,7 @@
         <f>riassuntoOreProgetto!A28</f>
         <v>44004</v>
       </c>
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="52" t="s">
         <v>85</v>
       </c>
       <c r="C30" s="47" t="s">
@@ -60397,7 +60409,7 @@
         <f>riassuntoOreProgetto!A31</f>
         <v>44007</v>
       </c>
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="52" t="s">
         <v>95</v>
       </c>
       <c r="C33" s="47" t="s">
@@ -60415,7 +60427,7 @@
         <f>riassuntoOreProgetto!A32</f>
         <v>44008</v>
       </c>
-      <c r="B34" s="47" t="s">
+      <c r="B34" s="52" t="s">
         <v>103</v>
       </c>
       <c r="C34" s="47" t="s">
@@ -60481,7 +60493,7 @@
         <f>riassuntoOreProgetto!A37</f>
         <v>44013</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="57" t="s">
         <v>113</v>
       </c>
       <c r="C39" s="46" t="s">
@@ -60500,7 +60512,7 @@
         <f>riassuntoOreProgetto!A38</f>
         <v>44014</v>
       </c>
-      <c r="B40" s="47" t="s">
+      <c r="B40" s="52" t="s">
         <v>116</v>
       </c>
       <c r="C40" s="47" t="s">
@@ -60518,7 +60530,7 @@
         <f>riassuntoOreProgetto!A39</f>
         <v>44015</v>
       </c>
-      <c r="B41" s="47" t="s">
+      <c r="B41" s="52" t="s">
         <v>116</v>
       </c>
       <c r="C41" s="47" t="s">
@@ -60536,17 +60548,27 @@
         <f>riassuntoOreProgetto!A40</f>
         <v>44016</v>
       </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="49"/>
+      <c r="B42" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="49">
+        <v>8</v>
+      </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="30">
         <f>riassuntoOreProgetto!A41</f>
         <v>44017</v>
       </c>
-      <c r="B43" s="47"/>
+      <c r="B43" s="52" t="s">
+        <v>65</v>
+      </c>
       <c r="C43" s="47"/>
       <c r="D43" s="47"/>
       <c r="E43" s="49"/>

--- a/Foglio di lavoro.xlsx
+++ b/Foglio di lavoro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carmi\Desktop\Tirocinio\AI-Car-Kineton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E47DE5-FD0B-43F3-9E1B-8CDB33561CF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA302E45-B6A2-4358-8F0A-7ABB52C3DE1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="131">
   <si>
     <t>Matricola</t>
   </si>
@@ -422,6 +422,15 @@
   <si>
     <t>Training - New Features - documentation e bug analysis</t>
   </si>
+  <si>
+    <t>Nuova sessione di training + nuove aggiunte</t>
+  </si>
+  <si>
+    <t>Training Crosswalk sessione 9 (WalkingNS1)</t>
+  </si>
+  <si>
+    <t>Separazione raggi end-game da walklimit e nuova sessione di training con ottimi risultati sul movimento e scarsi sul riconoscimento dei pedoni</t>
+  </si>
 </sst>
 </file>
 
@@ -756,7 +765,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -854,12 +863,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2996,7 +3006,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0</c:v>
@@ -6128,7 +6138,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0</c:v>
@@ -8641,7 +8651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
@@ -9804,11 +9814,11 @@
       </c>
       <c r="B42" s="36">
         <f>TabellaEstesaFerrara!E44</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C42" s="36">
         <f>TabellaEstesaAbate!E44</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -11428,11 +11438,11 @@
       </c>
       <c r="B100" s="37">
         <f>SUM(B2:B99)</f>
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C100" s="37">
         <f>SUM(C2:C99)</f>
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
@@ -32085,7 +32095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AA994"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
@@ -32099,23 +32109,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
@@ -32195,7 +32205,7 @@
       </c>
       <c r="B4" s="33">
         <f>SUM(riassuntoOreProgetto!B2:B99)</f>
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -32229,7 +32239,7 @@
       </c>
       <c r="B5" s="33">
         <f>SUM(riassuntoOreProgetto!C2:C99)</f>
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -34000,7 +34010,7 @@
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
+      <c r="G68" s="61"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
@@ -59949,8 +59959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -60237,7 +60247,7 @@
         <f>riassuntoOreProgetto!A21</f>
         <v>43997</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="59" t="s">
         <v>61</v>
       </c>
       <c r="C23" s="47" t="s">
@@ -60578,10 +60588,18 @@
         <f>riassuntoOreProgetto!A42</f>
         <v>44018</v>
       </c>
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="49"/>
+      <c r="B44" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="E44" s="49">
+        <v>8</v>
+      </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="30">
@@ -63865,7 +63883,7 @@
   <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="B44" sqref="B44:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -64493,10 +64511,18 @@
         <f>riassuntoOreProgetto!A42</f>
         <v>44018</v>
       </c>
-      <c r="B44" s="52"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="49"/>
+      <c r="B44" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="E44" s="49">
+        <v>8</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="30">

--- a/Foglio di lavoro.xlsx
+++ b/Foglio di lavoro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carmi\Desktop\Tirocinio\AI-Car-Kineton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA302E45-B6A2-4358-8F0A-7ABB52C3DE1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48944D1-76CA-4F5F-AE56-C62973B85E50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="134">
   <si>
     <t>Matricola</t>
   </si>
@@ -430,6 +430,15 @@
   </si>
   <si>
     <t>Separazione raggi end-game da walklimit e nuova sessione di training con ottimi risultati sul movimento e scarsi sul riconoscimento dei pedoni</t>
+  </si>
+  <si>
+    <t>Training-meeting + documentation</t>
+  </si>
+  <si>
+    <t>Continuazione sessione di training 9 + documentazione associata</t>
+  </si>
+  <si>
+    <t>Piccolo cambiamento di codice per determinare meglio il riconoscimento dei pedoni, training da 9_6 a 9_9 e documentazione testuale e visiva associate.</t>
   </si>
 </sst>
 </file>
@@ -866,10 +875,10 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2922,7 +2931,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>8</c:v>
@@ -2955,10 +2964,10 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -3009,7 +3018,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0</c:v>
@@ -9030,7 +9039,7 @@
       </c>
       <c r="B14" s="36">
         <f>TabellaEstesaFerrara!E16</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" s="36">
         <f>TabellaEstesaAbate!E16</f>
@@ -9338,7 +9347,7 @@
       </c>
       <c r="B25" s="36">
         <f>TabellaEstesaFerrara!E27</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C25" s="36">
         <f>TabellaEstesaAbate!E27</f>
@@ -9366,7 +9375,7 @@
       </c>
       <c r="B26" s="36">
         <f>TabellaEstesaFerrara!E28</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" s="36">
         <f>TabellaEstesaAbate!E28</f>
@@ -9842,7 +9851,7 @@
       </c>
       <c r="B43" s="36">
         <f>TabellaEstesaFerrara!E45</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C43" s="36">
         <f>TabellaEstesaAbate!E45</f>
@@ -11438,7 +11447,7 @@
       </c>
       <c r="B100" s="37">
         <f>SUM(B2:B99)</f>
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C100" s="37">
         <f>SUM(C2:C99)</f>
@@ -32095,7 +32104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AA994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
@@ -32109,23 +32118,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
@@ -32205,7 +32214,7 @@
       </c>
       <c r="B4" s="33">
         <f>SUM(riassuntoOreProgetto!B2:B99)</f>
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -34010,7 +34019,7 @@
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="61"/>
+      <c r="G68" s="60"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
@@ -59959,8 +59968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:E44"/>
+    <sheetView topLeftCell="D6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -60143,7 +60152,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="49">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -60327,7 +60336,7 @@
         <v>76</v>
       </c>
       <c r="E27" s="45">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -60345,7 +60354,7 @@
         <v>83</v>
       </c>
       <c r="E28" s="45">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -60606,10 +60615,18 @@
         <f>riassuntoOreProgetto!A43</f>
         <v>44019</v>
       </c>
-      <c r="B45" s="46"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="45"/>
+      <c r="B45" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="D45" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="E45" s="45">
+        <v>8</v>
+      </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="30">
@@ -63882,8 +63899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FEF407-122A-4E40-B832-EDBB91C0AE10}">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:E44"/>
+    <sheetView topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/Foglio di lavoro.xlsx
+++ b/Foglio di lavoro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\Github\AI-Car-Kineton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FFBC17-829F-4498-B818-4AAF4CFA7A43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7A683F-EAB0-4B2D-B00F-C2EAFF900A0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="174">
   <si>
     <t>Matricola</t>
   </si>
@@ -229,9 +229,6 @@
     <t>Predisposizione scena crosswalk per addestramento, aggiunta delimitatori di corsia e reward legati alla marcia dell'auto, risoluzione problemi legati all'istanziazione di agenti multipli e prime sessioni di traininig  agente.</t>
   </si>
   <si>
-    <t>SABATO</t>
-  </si>
-  <si>
     <t>DOMENICA</t>
   </si>
   <si>
@@ -266,12 +263,6 @@
   </si>
   <si>
     <t>ggiornamento dettagliato nell'assegnazione dei reward per i movimenti dell'agente e di collisioni con i pedoni, aggiunta del secondo pedone sulle strisce e continuazione della sessione 5 di training dopo i cambiamenti</t>
-  </si>
-  <si>
-    <t>Meeting</t>
-  </si>
-  <si>
-    <t>Meeting con Ignazio</t>
   </si>
   <si>
     <t>Riorganizzazione e test</t>
@@ -370,12 +361,6 @@
     <t>Sostenuti nuovi test (Parking-NS2-{11-12-13}) con ottimi risultati. Aggiunta documentazione sui nuovi test della sessione NS2. Ridefiniti gli spawn.</t>
   </si>
   <si>
-    <t>STUDIO</t>
-  </si>
-  <si>
-    <t>PREPARAZIONE ESAME</t>
-  </si>
-  <si>
     <t>Ampliamento Agenti + Training + Documentazione</t>
   </si>
   <si>
@@ -460,9 +445,6 @@
     <t>Costruito un piccolo progetto di test su ML-Agents</t>
   </si>
   <si>
-    <t>Esempio dei pinguini</t>
-  </si>
-  <si>
     <t>Esempio della sfera verso un target</t>
   </si>
   <si>
@@ -521,6 +503,60 @@
   </si>
   <si>
     <t>Aggiunta scena nella quale l'utente può guidare l'auto manualmente e divertirsi nello spazio 3D.</t>
+  </si>
+  <si>
+    <t>Modifiche ai reward e nuove sessioni di training</t>
+  </si>
+  <si>
+    <t>Effettuati nuovi test ma con risultati non soddisfacenti</t>
+  </si>
+  <si>
+    <t>Effettuati nuovi test e cambiamenti alla scena in modo da facilitare ulteriormente i test relativi al doppio agente sulla doppio corsia</t>
+  </si>
+  <si>
+    <t>Continuazione scena</t>
+  </si>
+  <si>
+    <t>Continuata la decorazione della scena con rifiniture</t>
+  </si>
+  <si>
+    <t>Decorata ulteriormente la scena aggiungendo nuovi dettagli in modo da predisporla per I primi test.</t>
+  </si>
+  <si>
+    <t>Finalizzate le scene</t>
+  </si>
+  <si>
+    <t>Conclusa la scena comune per il movimento manuale</t>
+  </si>
+  <si>
+    <t>Decorata ulteriormente la scena aggiungendo nuovi dettagli e sistemi automatici di spawn e parcheggio.</t>
+  </si>
+  <si>
+    <t>Continuazione dell'esempio precedente seguendo nuovi modelli di path following</t>
+  </si>
+  <si>
+    <t>Esempio di una macchina che schiva tutte le auto che vede frontalmente dirette verso di lei</t>
+  </si>
+  <si>
+    <t>Continuazione tutorial pinguini</t>
+  </si>
+  <si>
+    <t>Meeting + test</t>
+  </si>
+  <si>
+    <t>Meeting con Ignazio + nuovi test</t>
+  </si>
+  <si>
+    <t>Effettuati nuovi test e perfezionato il sistema di direzione.</t>
+  </si>
+  <si>
+    <t>Effettuati nuovi test con scarsi risultati</t>
+  </si>
+  <si>
+    <t>Migliorato il sistema di spawn</t>
+  </si>
+  <si>
+    <t>Il sistema di spawn godeva di un problema, oggi fixato, il quale rotava male l'auto.</t>
   </si>
 </sst>
 </file>
@@ -952,11 +988,11 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2974,13 +3010,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2992,19 +3028,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -3025,7 +3061,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -3067,13 +3103,13 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0</c:v>
@@ -3109,7 +3145,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0</c:v>
@@ -6106,13 +6142,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -6124,19 +6160,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -6157,7 +6193,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -6172,7 +6208,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -6241,7 +6277,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0</c:v>
@@ -7509,7 +7545,7 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8739,8 +8775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8782,11 +8818,11 @@
       </c>
       <c r="B2" s="36">
         <f>TabellaEstesaFerrara!E4</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="36">
         <f>TabellaEstesaAbate!E4</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -8810,11 +8846,11 @@
       </c>
       <c r="B3" s="36">
         <f>TabellaEstesaFerrara!E5</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C3" s="36">
         <f>TabellaEstesaAbate!E5</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -8838,11 +8874,11 @@
       </c>
       <c r="B4" s="36">
         <f>TabellaEstesaFerrara!E6</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="36">
         <f>TabellaEstesaAbate!E6</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -8950,11 +8986,11 @@
       </c>
       <c r="B8" s="36">
         <f>TabellaEstesaFerrara!E10</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C8" s="36">
         <f>TabellaEstesaAbate!E10</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -8978,11 +9014,11 @@
       </c>
       <c r="B9" s="36">
         <f>TabellaEstesaFerrara!E11</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9" s="36">
         <f>TabellaEstesaAbate!E11</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -9006,11 +9042,11 @@
       </c>
       <c r="B10" s="36">
         <f>TabellaEstesaFerrara!E12</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" s="36">
         <f>TabellaEstesaAbate!E12</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -9062,11 +9098,11 @@
       </c>
       <c r="B12" s="36">
         <f>TabellaEstesaFerrara!E14</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C12" s="36">
         <f>TabellaEstesaAbate!E14</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -9258,11 +9294,11 @@
       </c>
       <c r="B19" s="36">
         <f>TabellaEstesaFerrara!E21</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C19" s="36">
         <f>TabellaEstesaAbate!E21</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -9402,7 +9438,7 @@
       </c>
       <c r="C24" s="36">
         <f>TabellaEstesaAbate!E26</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -9650,7 +9686,7 @@
       </c>
       <c r="B33" s="36">
         <f>TabellaEstesaFerrara!E35</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C33" s="36">
         <f>TabellaEstesaAbate!E35</f>
@@ -9706,7 +9742,7 @@
       </c>
       <c r="B35" s="36">
         <f>TabellaEstesaFerrara!E37</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C35" s="36">
         <f>TabellaEstesaAbate!E37</f>
@@ -10042,11 +10078,11 @@
       </c>
       <c r="B47" s="36">
         <f>TabellaEstesaFerrara!E49</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C47" s="36">
         <f>TabellaEstesaAbate!E49</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
@@ -11526,11 +11562,11 @@
       </c>
       <c r="B100" s="37">
         <f>SUM(B2:B99)</f>
-        <v>214</v>
+        <v>275</v>
       </c>
       <c r="C100" s="37">
         <f>SUM(C2:C99)</f>
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
@@ -32183,7 +32219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AA994"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
@@ -32197,23 +32233,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
@@ -32293,7 +32329,7 @@
       </c>
       <c r="B4" s="33">
         <f>SUM(riassuntoOreProgetto!B2:B99)</f>
-        <v>214</v>
+        <v>275</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -32327,7 +32363,7 @@
       </c>
       <c r="B5" s="33">
         <f>SUM(riassuntoOreProgetto!C2:C99)</f>
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -60047,8 +60083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -60101,16 +60137,16 @@
         <v>43978</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C4" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="44" t="s">
-        <v>144</v>
-      </c>
       <c r="E4" s="45">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -60118,10 +60154,18 @@
         <f>riassuntoOreProgetto!A3</f>
         <v>43979</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="45"/>
+      <c r="B5" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="45">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30">
@@ -60129,16 +60173,16 @@
         <v>43980</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E6" s="45">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -60158,7 +60202,7 @@
         <v>43982</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
@@ -60180,16 +60224,16 @@
         <v>43984</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C10" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="D10" s="46" t="s">
-        <v>146</v>
-      </c>
       <c r="E10" s="45">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -60197,10 +60241,18 @@
         <f>riassuntoOreProgetto!A9</f>
         <v>43985</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="45"/>
+      <c r="B11" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="45">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
@@ -60208,16 +60260,16 @@
         <v>43986</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E12" s="45">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -60226,13 +60278,13 @@
         <v>43987</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="E13" s="49">
         <v>8</v>
@@ -60243,10 +60295,18 @@
         <f>riassuntoOreProgetto!A12</f>
         <v>43988</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="49"/>
+      <c r="B14" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="49">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
@@ -60254,7 +60314,7 @@
         <v>43989</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="47"/>
       <c r="D15" s="47"/>
@@ -60320,13 +60380,13 @@
         <v>43993</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="49">
         <v>0</v>
@@ -60356,11 +60416,17 @@
         <v>43995</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="49"/>
+        <v>159</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" s="49">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
@@ -60368,7 +60434,7 @@
         <v>43996</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -60398,13 +60464,13 @@
         <v>43998</v>
       </c>
       <c r="B24" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="D24" s="46" t="s">
         <v>68</v>
-      </c>
-      <c r="D24" s="46" t="s">
-        <v>69</v>
       </c>
       <c r="E24" s="45">
         <v>8</v>
@@ -60416,13 +60482,13 @@
         <v>43999</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" s="45"/>
     </row>
@@ -60432,13 +60498,13 @@
         <v>44000</v>
       </c>
       <c r="B26" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="47" t="s">
+      <c r="D26" s="46" t="s">
         <v>72</v>
-      </c>
-      <c r="D26" s="46" t="s">
-        <v>73</v>
       </c>
       <c r="E26" s="45">
         <v>8</v>
@@ -60450,13 +60516,13 @@
         <v>44001</v>
       </c>
       <c r="B27" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="D27" s="46" t="s">
         <v>75</v>
-      </c>
-      <c r="D27" s="46" t="s">
-        <v>76</v>
       </c>
       <c r="E27" s="45">
         <v>8</v>
@@ -60468,13 +60534,13 @@
         <v>44002</v>
       </c>
       <c r="B28" s="52" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C28" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="46" t="s">
         <v>80</v>
-      </c>
-      <c r="D28" s="46" t="s">
-        <v>83</v>
       </c>
       <c r="E28" s="45">
         <v>8</v>
@@ -60486,7 +60552,7 @@
         <v>44003</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
@@ -60498,13 +60564,13 @@
         <v>44004</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C30" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="46" t="s">
         <v>84</v>
-      </c>
-      <c r="D30" s="46" t="s">
-        <v>87</v>
       </c>
       <c r="E30" s="45">
         <v>8</v>
@@ -60516,13 +60582,13 @@
         <v>44005</v>
       </c>
       <c r="B31" s="56" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C31" s="46" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D31" s="46" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E31" s="45">
         <v>8</v>
@@ -60534,13 +60600,13 @@
         <v>44006</v>
       </c>
       <c r="B32" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="46" t="s">
         <v>91</v>
-      </c>
-      <c r="C32" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="46" t="s">
-        <v>94</v>
       </c>
       <c r="E32" s="45">
         <v>8</v>
@@ -60552,13 +60618,13 @@
         <v>44007</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E33" s="45">
         <v>8</v>
@@ -60570,13 +60636,13 @@
         <v>44008</v>
       </c>
       <c r="B34" s="52" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D34" s="47" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E34" s="45">
         <v>8</v>
@@ -60588,11 +60654,17 @@
         <v>44009</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="45"/>
+        <v>100</v>
+      </c>
+      <c r="C35" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="E35" s="45">
+        <v>8</v>
+      </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30">
@@ -60600,7 +60672,7 @@
         <v>44010</v>
       </c>
       <c r="B36" s="52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C36" s="47"/>
       <c r="D36" s="47"/>
@@ -60612,11 +60684,17 @@
         <v>44011</v>
       </c>
       <c r="B37" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="45"/>
+        <v>100</v>
+      </c>
+      <c r="C37" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="D37" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" s="45">
+        <v>8</v>
+      </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
@@ -60624,7 +60702,7 @@
         <v>44012</v>
       </c>
       <c r="B38" s="56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C38" s="46"/>
       <c r="D38" s="46"/>
@@ -60636,13 +60714,13 @@
         <v>44013</v>
       </c>
       <c r="B39" s="56" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C39" s="46" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D39" s="46" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E39" s="45">
         <v>8</v>
@@ -60655,13 +60733,13 @@
         <v>44014</v>
       </c>
       <c r="B40" s="52" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C40" s="47" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D40" s="47" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E40" s="49">
         <v>8</v>
@@ -60673,13 +60751,13 @@
         <v>44015</v>
       </c>
       <c r="B41" s="52" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C41" s="47" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E41" s="49">
         <v>8</v>
@@ -60691,13 +60769,13 @@
         <v>44016</v>
       </c>
       <c r="B42" s="52" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C42" s="47" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D42" s="47" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E42" s="49">
         <v>8</v>
@@ -60709,7 +60787,7 @@
         <v>44017</v>
       </c>
       <c r="B43" s="52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C43" s="47"/>
       <c r="D43" s="47"/>
@@ -60721,13 +60799,13 @@
         <v>44018</v>
       </c>
       <c r="B44" s="47" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C44" s="47" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D44" s="47" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E44" s="49">
         <v>8</v>
@@ -60739,13 +60817,13 @@
         <v>44019</v>
       </c>
       <c r="B45" s="46" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C45" s="46" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D45" s="46" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E45" s="45">
         <v>8</v>
@@ -60757,13 +60835,13 @@
         <v>44020</v>
       </c>
       <c r="B46" s="46" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C46" s="46" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D46" s="46" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E46" s="45">
         <v>8</v>
@@ -60775,13 +60853,13 @@
         <v>44021</v>
       </c>
       <c r="B47" s="52" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C47" s="47" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D47" s="47" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E47" s="49">
         <v>8</v>
@@ -60793,13 +60871,13 @@
         <v>44022</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="D48" s="62" t="s">
-        <v>161</v>
+        <v>154</v>
+      </c>
+      <c r="D48" s="61" t="s">
+        <v>155</v>
       </c>
       <c r="E48" s="49">
         <v>8</v>
@@ -60810,10 +60888,18 @@
         <f>riassuntoOreProgetto!A47</f>
         <v>44023</v>
       </c>
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="49"/>
+      <c r="B49" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="C49" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="D49" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="E49" s="49">
+        <v>8</v>
+      </c>
     </row>
     <row r="50" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
@@ -64046,14 +64132,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FEF407-122A-4E40-B832-EDBB91C0AE10}">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="26.875" customWidth="1"/>
     <col min="3" max="3" width="45.125" customWidth="1"/>
     <col min="4" max="4" width="126.5" customWidth="1"/>
   </cols>
@@ -64099,16 +64185,16 @@
         <v>43978</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C4" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="44" t="s">
-        <v>144</v>
-      </c>
       <c r="E4" s="45">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -64116,10 +64202,18 @@
         <f>riassuntoOreProgetto!A3</f>
         <v>43979</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="45"/>
+      <c r="B5" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="45">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="30">
@@ -64127,16 +64221,16 @@
         <v>43980</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E6" s="45">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -64155,7 +64249,7 @@
         <v>43982</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
@@ -64177,16 +64271,16 @@
         <v>43984</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C10" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="D10" s="46" t="s">
-        <v>141</v>
-      </c>
       <c r="E10" s="45">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -64194,10 +64288,18 @@
         <f>riassuntoOreProgetto!A9</f>
         <v>43985</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="45"/>
+      <c r="B11" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="45">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
@@ -64205,16 +64307,16 @@
         <v>43986</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E12" s="45">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -64223,13 +64325,13 @@
         <v>43987</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="E13" s="49">
         <v>8</v>
@@ -64240,10 +64342,18 @@
         <f>riassuntoOreProgetto!A12</f>
         <v>43988</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="49"/>
+      <c r="B14" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="49">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
@@ -64251,7 +64361,7 @@
         <v>43989</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="47"/>
       <c r="D15" s="47"/>
@@ -64354,11 +64464,17 @@
         <v>43995</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="49"/>
+        <v>172</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="E21" s="49">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
@@ -64366,7 +64482,7 @@
         <v>43996</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" s="47"/>
       <c r="D22" s="47"/>
@@ -64378,13 +64494,13 @@
         <v>43997</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23" s="45"/>
     </row>
@@ -64394,13 +64510,13 @@
         <v>43998</v>
       </c>
       <c r="B24" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="D24" s="46" t="s">
         <v>68</v>
-      </c>
-      <c r="D24" s="46" t="s">
-        <v>69</v>
       </c>
       <c r="E24" s="45">
         <v>8</v>
@@ -64412,12 +64528,14 @@
         <v>43999</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="47"/>
+        <v>79</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>171</v>
+      </c>
       <c r="E25" s="45">
         <v>8</v>
       </c>
@@ -64428,14 +64546,16 @@
         <v>44000</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="46"/>
+        <v>169</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>170</v>
+      </c>
       <c r="E26" s="45">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -64444,13 +64564,13 @@
         <v>44001</v>
       </c>
       <c r="B27" s="56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D27" s="56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" s="45"/>
     </row>
@@ -64460,13 +64580,13 @@
         <v>44002</v>
       </c>
       <c r="B28" s="52" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C28" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="46" t="s">
         <v>80</v>
-      </c>
-      <c r="D28" s="46" t="s">
-        <v>83</v>
       </c>
       <c r="E28" s="45">
         <v>8</v>
@@ -64478,7 +64598,7 @@
         <v>44003</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
@@ -64490,13 +64610,13 @@
         <v>44004</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D30" s="46" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E30" s="45">
         <v>8</v>
@@ -64508,13 +64628,13 @@
         <v>44005</v>
       </c>
       <c r="B31" s="56" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C31" s="46" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D31" s="46" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E31" s="45">
         <v>8</v>
@@ -64526,13 +64646,13 @@
         <v>44006</v>
       </c>
       <c r="B32" s="56" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C32" s="46" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D32" s="46" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E32" s="45">
         <v>8</v>
@@ -64544,13 +64664,13 @@
         <v>44007</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E33" s="45">
         <v>8</v>
@@ -64562,13 +64682,13 @@
         <v>44008</v>
       </c>
       <c r="B34" s="52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D34" s="47" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E34" s="45">
         <v>8</v>
@@ -64580,13 +64700,13 @@
         <v>44009</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C35" s="47" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D35" s="47" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E35" s="45">
         <v>8</v>
@@ -64598,7 +64718,7 @@
         <v>44010</v>
       </c>
       <c r="B36" s="52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C36" s="47"/>
       <c r="D36" s="47"/>
@@ -64610,13 +64730,13 @@
         <v>44011</v>
       </c>
       <c r="B37" s="52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C37" s="47" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D37" s="47" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E37" s="45">
         <v>8</v>
@@ -64628,13 +64748,13 @@
         <v>44012</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C38" s="47" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D38" s="47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E38" s="45">
         <v>8</v>
@@ -64646,13 +64766,13 @@
         <v>44013</v>
       </c>
       <c r="B39" s="52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D39" s="47" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E39" s="45">
         <v>8</v>
@@ -64664,13 +64784,13 @@
         <v>44014</v>
       </c>
       <c r="B40" s="52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C40" s="47" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D40" s="47" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E40" s="49">
         <v>8</v>
@@ -64682,13 +64802,13 @@
         <v>44015</v>
       </c>
       <c r="B41" s="52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C41" s="47" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E41" s="49">
         <v>8</v>
@@ -64720,13 +64840,13 @@
         <v>44018</v>
       </c>
       <c r="B44" s="47" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C44" s="47" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D44" s="47" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E44" s="49">
         <v>8</v>
@@ -64738,13 +64858,13 @@
         <v>44019</v>
       </c>
       <c r="B45" s="56" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C45" s="46" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D45" s="46" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E45" s="45">
         <v>8</v>
@@ -64756,13 +64876,13 @@
         <v>44020</v>
       </c>
       <c r="B46" s="56" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C46" s="46" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D46" s="46" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E46" s="45">
         <v>8</v>
@@ -64774,13 +64894,13 @@
         <v>44021</v>
       </c>
       <c r="B47" s="58" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C47" s="57" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D47" s="57" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E47" s="60">
         <v>8</v>
@@ -64792,13 +64912,13 @@
         <v>44022</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C48" s="47" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D48" s="47" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E48" s="49">
         <v>8</v>
@@ -64809,10 +64929,18 @@
         <f>riassuntoOreProgetto!A47</f>
         <v>44023</v>
       </c>
-      <c r="B49" s="52"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="49"/>
+      <c r="B49" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="C49" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="D49" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="E49" s="49">
+        <v>8</v>
+      </c>
     </row>
     <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
